--- a/biology/Botanique/Hohenbergiopsis_guatemalensis/Hohenbergiopsis_guatemalensis.xlsx
+++ b/biology/Botanique/Hohenbergiopsis_guatemalensis/Hohenbergiopsis_guatemalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hohenbergiopsis guatemalensis est une espèce de plantes de la famille des Bromeliaceae, monotypique dans son genre et qui se rencontre au Guatemala et au Mexique, dans les États d'Oaxaca et du Chiapas.
 </t>
